--- a/Work Zone Layout.xlsx
+++ b/Work Zone Layout.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User Files\Education\PhD\NDSU\MnDOT Project\Tasks\Task 4\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DBE839-96F4-4F13-80AE-47D2965E59BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6861E34A-D72F-4282-90AF-2758D83B1F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D941F896-1D5D-4BCE-8BC6-B78F083C3B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D941F896-1D5D-4BCE-8BC6-B78F083C3B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout 1" sheetId="1" r:id="rId1"/>
     <sheet name="Layout 2" sheetId="3" r:id="rId2"/>
     <sheet name="Wind force" sheetId="2" r:id="rId3"/>
+    <sheet name="Car Speed" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Cone area</t>
   </si>
@@ -53,18 +54,12 @@
     <t>V2</t>
   </si>
   <si>
-    <t>V3</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F3</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -75,6 +70,18 @@
   </si>
   <si>
     <t>m/s</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -863,10 +870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053743A6-8486-48BA-A573-171C3FD6FE72}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,7 +892,7 @@
         <v>0.1065</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,7 +903,7 @@
         <v>1.2250000000000001</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.3000000000000007</v>
+        <v>3.6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,21 +930,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>13.9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="B8" s="2">
+        <f>0.5*B3*B2*B5*B5</f>
+        <v>0.84539700000000007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -945,39 +953,64 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <f>0.5*B3*B2*B4*B5*B5</f>
-        <v>3.1456465687500001</v>
+        <f>0.5*B3*B2*B6*B6</f>
+        <v>18.851831250000004</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <f>0.5*B3*B2*B4*B6*B6</f>
-        <v>5.3260011</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <f>0.5*B3*B2*B4*B7*B7</f>
-        <v>8.8223308687500008</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893B22F8-0265-4DC8-A59A-90986C625E75}">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <f>(B2+B3)/2</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <f>(B3-B2)/6</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>